--- a/history.xlsx
+++ b/history.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +399,9 @@
       <c r="F1" t="str">
         <v>成交量</v>
       </c>
+      <c r="G1" t="str">
+        <v>liq</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -419,6 +422,9 @@
       <c r="F2">
         <v>54.04794016038991</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -439,6 +445,9 @@
       <c r="F3">
         <v>1910.3764277664275</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -459,6 +468,9 @@
       <c r="F4">
         <v>253.38672823443267</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -479,6 +491,9 @@
       <c r="F5">
         <v>54.47682720892549</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -499,6 +514,9 @@
       <c r="F6">
         <v>1006.0058890916343</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -519,6 +537,9 @@
       <c r="F7">
         <v>1955.4692413199905</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -539,6 +560,9 @@
       <c r="F8">
         <v>3521.17422860271</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -559,6 +583,9 @@
       <c r="F9">
         <v>32353.779503484715</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -579,6 +606,9 @@
       <c r="F10">
         <v>41746.07569783638</v>
       </c>
+      <c r="G10">
+        <v>2723.8382451741</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -599,6 +629,9 @@
       <c r="F11">
         <v>45489.127549219</v>
       </c>
+      <c r="G11">
+        <v>1218.3260526417</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -619,6 +652,9 @@
       <c r="F12">
         <v>23016.7419118408</v>
       </c>
+      <c r="G12">
+        <v>1010.0422862711</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -639,6 +675,9 @@
       <c r="F13">
         <v>25871.04640608729</v>
       </c>
+      <c r="G13">
+        <v>1052.3655697999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -659,6 +698,9 @@
       <c r="F14">
         <v>49085.62752516405</v>
       </c>
+      <c r="G14">
+        <v>5785.9003750561</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -679,6 +721,9 @@
       <c r="F15">
         <v>21286.133275682652</v>
       </c>
+      <c r="G15">
+        <v>6376.1962439965</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -699,6 +744,9 @@
       <c r="F16">
         <v>34682.9968457986</v>
       </c>
+      <c r="G16">
+        <v>9201.747868633</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -719,6 +767,9 @@
       <c r="F17">
         <v>24194.08673043907</v>
       </c>
+      <c r="G17">
+        <v>7270.6451545034</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -739,6 +790,9 @@
       <c r="F18">
         <v>10020.777278285037</v>
       </c>
+      <c r="G18">
+        <v>7285.4117147409</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -759,6 +813,9 @@
       <c r="F19">
         <v>18157.062970940737</v>
       </c>
+      <c r="G19">
+        <v>7385.4948531262</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -779,6 +836,9 @@
       <c r="F20">
         <v>10995.78837252943</v>
       </c>
+      <c r="G20">
+        <v>7439.7763208997</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -799,6 +859,9 @@
       <c r="F21">
         <v>31222.47490249014</v>
       </c>
+      <c r="G21">
+        <v>7945.9847733436</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -819,6 +882,9 @@
       <c r="F22">
         <v>52509.368684937814</v>
       </c>
+      <c r="G22">
+        <v>7349.0080379126</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -839,6 +905,9 @@
       <c r="F23">
         <v>28136.032179711736</v>
       </c>
+      <c r="G23">
+        <v>7406.045540153</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -859,6 +928,9 @@
       <c r="F24">
         <v>25501.288157465497</v>
       </c>
+      <c r="G24">
+        <v>7081.3603790615</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -879,6 +951,9 @@
       <c r="F25">
         <v>32616.92258430153</v>
       </c>
+      <c r="G25">
+        <v>7490.2775914592</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -899,6 +974,9 @@
       <c r="F26">
         <v>48061.52924545556</v>
       </c>
+      <c r="G26">
+        <v>8242.9559784173</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -919,6 +997,9 @@
       <c r="F27">
         <v>18151.957051280337</v>
       </c>
+      <c r="G27">
+        <v>10472.419731299</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -939,6 +1020,9 @@
       <c r="F28">
         <v>17627.649726254967</v>
       </c>
+      <c r="G28">
+        <v>10216.1133589</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -959,6 +1043,9 @@
       <c r="F29">
         <v>83316.09302431854</v>
       </c>
+      <c r="G29">
+        <v>9647.0786057662</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -979,6 +1066,9 @@
       <c r="F30">
         <v>49667.33223404597</v>
       </c>
+      <c r="G30">
+        <v>9689.9640273379</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -999,6 +1089,9 @@
       <c r="F31">
         <v>29702.147309693133</v>
       </c>
+      <c r="G31">
+        <v>10068.35481349</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1019,6 +1112,9 @@
       <c r="F32">
         <v>20572.657312214196</v>
       </c>
+      <c r="G32">
+        <v>10042.220872131</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1039,6 +1135,9 @@
       <c r="F33">
         <v>24443.10717923741</v>
       </c>
+      <c r="G33">
+        <v>9962.0758996321</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1059,6 +1158,9 @@
       <c r="F34">
         <v>8664.598953963121</v>
       </c>
+      <c r="G34">
+        <v>10008.683560468</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1079,6 +1181,9 @@
       <c r="F35">
         <v>55392.538317204424</v>
       </c>
+      <c r="G35">
+        <v>24926.996849399</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1099,6 +1204,9 @@
       <c r="F36">
         <v>86461.51427274248</v>
       </c>
+      <c r="G36">
+        <v>23447.806315979</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1119,6 +1227,9 @@
       <c r="F37">
         <v>32815.045388115796</v>
       </c>
+      <c r="G37">
+        <v>22490.538643034</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1139,6 +1250,9 @@
       <c r="F38">
         <v>37785.4908677965</v>
       </c>
+      <c r="G38">
+        <v>22338.129186886</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1159,6 +1273,9 @@
       <c r="F39">
         <v>34229.18400684721</v>
       </c>
+      <c r="G39">
+        <v>22317.361256611</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1179,6 +1296,9 @@
       <c r="F40">
         <v>67534.27335339584</v>
       </c>
+      <c r="G40">
+        <v>17030.675997186</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1199,6 +1319,9 @@
       <c r="F41">
         <v>16064.984359897015</v>
       </c>
+      <c r="G41">
+        <v>16595.042476476</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1219,6 +1342,9 @@
       <c r="F42">
         <v>29797.954547044355</v>
       </c>
+      <c r="G42">
+        <v>16548.801243691</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1239,6 +1365,9 @@
       <c r="F43">
         <v>42806.95183957863</v>
       </c>
+      <c r="G43">
+        <v>91533.322104505</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1259,6 +1388,9 @@
       <c r="F44">
         <v>20392.993626839067</v>
       </c>
+      <c r="G44">
+        <v>94031.808656014</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1279,6 +1411,9 @@
       <c r="F45">
         <v>43182.831954291774</v>
       </c>
+      <c r="G45">
+        <v>93153.443541586</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1299,6 +1434,9 @@
       <c r="F46">
         <v>34670.99598363474</v>
       </c>
+      <c r="G46">
+        <v>111047.34866324</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1319,6 +1457,9 @@
       <c r="F47">
         <v>54919.09060761864</v>
       </c>
+      <c r="G47">
+        <v>112128.71074045</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1339,6 +1480,9 @@
       <c r="F48">
         <v>22490.93740836571</v>
       </c>
+      <c r="G48">
+        <v>111432.53633749</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1359,6 +1503,9 @@
       <c r="F49">
         <v>2650.591808038509</v>
       </c>
+      <c r="G49">
+        <v>103972.65534315</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1379,6 +1526,9 @@
       <c r="F50">
         <v>311780.0985861263</v>
       </c>
+      <c r="G50">
+        <v>115007.93166243</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1399,6 +1549,9 @@
       <c r="F51">
         <v>282566.64698437374</v>
       </c>
+      <c r="G51">
+        <v>104095.03614148</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1419,6 +1572,9 @@
       <c r="F52">
         <v>131328.22501922303</v>
       </c>
+      <c r="G52">
+        <v>121823.69088793</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1439,6 +1595,9 @@
       <c r="F53">
         <v>266.8073906811857</v>
       </c>
+      <c r="G53">
+        <v>113307.14223413</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1459,6 +1618,9 @@
       <c r="F54">
         <v>87927.84942632806</v>
       </c>
+      <c r="G54">
+        <v>109646.31399309</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1479,6 +1641,9 @@
       <c r="F55">
         <v>138382.45225332506</v>
       </c>
+      <c r="G55">
+        <v>104468.90483352</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1499,6 +1664,9 @@
       <c r="F56">
         <v>134369.78013716429</v>
       </c>
+      <c r="G56">
+        <v>107584.77829815</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1519,6 +1687,9 @@
       <c r="F57">
         <v>225615.5931844173</v>
       </c>
+      <c r="G57">
+        <v>108759.49234167</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1539,6 +1710,9 @@
       <c r="F58">
         <v>70793.27060172925</v>
       </c>
+      <c r="G58">
+        <v>107022.7615798</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1559,6 +1733,9 @@
       <c r="F59">
         <v>16364.175877801832</v>
       </c>
+      <c r="G59">
+        <v>105208.84650208</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1579,6 +1756,9 @@
       <c r="F60">
         <v>224832.99194360612</v>
       </c>
+      <c r="G60">
+        <v>100096.16816227</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1599,6 +1779,9 @@
       <c r="F61">
         <v>93205.16437270623</v>
       </c>
+      <c r="G61">
+        <v>95367.296071503</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1619,6 +1802,9 @@
       <c r="F62">
         <v>18678.861128151053</v>
       </c>
+      <c r="G62">
+        <v>94879.16598602</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1639,6 +1825,9 @@
       <c r="F63">
         <v>86483.72773455945</v>
       </c>
+      <c r="G63">
+        <v>94710.982112036</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1659,6 +1848,9 @@
       <c r="F64">
         <v>255546.77423064195</v>
       </c>
+      <c r="G64">
+        <v>95866.233620344</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1679,6 +1871,9 @@
       <c r="F65">
         <v>124607.45505049374</v>
       </c>
+      <c r="G65">
+        <v>91753.237264279</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1699,6 +1894,9 @@
       <c r="F66">
         <v>222975.88661936135</v>
       </c>
+      <c r="G66">
+        <v>90138.787414507</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1719,6 +1917,9 @@
       <c r="F67">
         <v>241074.27664136468</v>
       </c>
+      <c r="G67">
+        <v>96752.779556202</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1739,6 +1940,9 @@
       <c r="F68">
         <v>239699.25080986758</v>
       </c>
+      <c r="G68">
+        <v>100723.16386983</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1759,6 +1963,9 @@
       <c r="F69">
         <v>496431.4860531026</v>
       </c>
+      <c r="G69">
+        <v>87847.709568336</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1779,6 +1986,9 @@
       <c r="F70">
         <v>203147.7147756886</v>
       </c>
+      <c r="G70">
+        <v>91770.101556276</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1799,6 +2009,9 @@
       <c r="F71">
         <v>135733.29017906327</v>
       </c>
+      <c r="G71">
+        <v>90061.909560045</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1819,6 +2032,9 @@
       <c r="F72">
         <v>150378.27156564553</v>
       </c>
+      <c r="G72">
+        <v>90095.657419131</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1839,6 +2055,9 @@
       <c r="F73">
         <v>115271.02464292849</v>
       </c>
+      <c r="G73">
+        <v>91038.666424873</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1859,6 +2078,9 @@
       <c r="F74">
         <v>315200.1873556931</v>
       </c>
+      <c r="G74">
+        <v>90985.000020383</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1879,6 +2101,9 @@
       <c r="F75">
         <v>153434.42903056782</v>
       </c>
+      <c r="G75">
+        <v>92809.67545119</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1899,6 +2124,9 @@
       <c r="F76">
         <v>92489.38675629723</v>
       </c>
+      <c r="G76">
+        <v>92587.61773701</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1919,6 +2147,9 @@
       <c r="F77">
         <v>134279.4263480839</v>
       </c>
+      <c r="G77">
+        <v>83286.580186148</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1939,6 +2170,9 @@
       <c r="F78">
         <v>50768.443318699756</v>
       </c>
+      <c r="G78">
+        <v>84274.208269079</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1959,6 +2193,9 @@
       <c r="F79">
         <v>47943.189105822035</v>
       </c>
+      <c r="G79">
+        <v>85456.996322674</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1979,6 +2216,9 @@
       <c r="F80">
         <v>140529.70858115976</v>
       </c>
+      <c r="G80">
+        <v>95121.227352857</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1999,6 +2239,9 @@
       <c r="F81">
         <v>121161.88011846956</v>
       </c>
+      <c r="G81">
+        <v>103038.15110709</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -2019,6 +2262,9 @@
       <c r="F82">
         <v>91758.94807305737</v>
       </c>
+      <c r="G82">
+        <v>103930.59359763</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -2039,6 +2285,9 @@
       <c r="F83">
         <v>103634.52285697585</v>
       </c>
+      <c r="G83">
+        <v>106708.16031135</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -2059,6 +2308,9 @@
       <c r="F84">
         <v>183427.15896624845</v>
       </c>
+      <c r="G84">
+        <v>108809.70729536</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -2079,6 +2331,9 @@
       <c r="F85">
         <v>163265.6268238859</v>
       </c>
+      <c r="G85">
+        <v>109186.10722815</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -2099,6 +2354,9 @@
       <c r="F86">
         <v>271740.8803695169</v>
       </c>
+      <c r="G86">
+        <v>111217.50373448</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -2119,6 +2377,9 @@
       <c r="F87">
         <v>174042.75711377274</v>
       </c>
+      <c r="G87">
+        <v>110227.12811883</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -2139,6 +2400,9 @@
       <c r="F88">
         <v>68419.84422468254</v>
       </c>
+      <c r="G88">
+        <v>109954.25738462</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -2159,6 +2423,9 @@
       <c r="F89">
         <v>190933.93984683015</v>
       </c>
+      <c r="G89">
+        <v>110975.5967117</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -2179,6 +2446,9 @@
       <c r="F90">
         <v>58155.431954820124</v>
       </c>
+      <c r="G90">
+        <v>110815.30278623</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -2199,6 +2469,9 @@
       <c r="F91">
         <v>11225.151974361965</v>
       </c>
+      <c r="G91">
+        <v>110380.49735771</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -2219,6 +2492,9 @@
       <c r="F92">
         <v>174149.54706233318</v>
       </c>
+      <c r="G92">
+        <v>111454.41933321</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -2239,6 +2515,9 @@
       <c r="F93">
         <v>108371.13085715912</v>
       </c>
+      <c r="G93">
+        <v>112196.84445009</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -2259,6 +2538,9 @@
       <c r="F94">
         <v>118676.17222950127</v>
       </c>
+      <c r="G94">
+        <v>112062.37933709</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -2279,6 +2561,9 @@
       <c r="F95">
         <v>82572.30112026195</v>
       </c>
+      <c r="G95">
+        <v>111692.22145664</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -2299,6 +2584,9 @@
       <c r="F96">
         <v>128169.55844118042</v>
       </c>
+      <c r="G96">
+        <v>111699.60044816</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -2319,6 +2607,9 @@
       <c r="F97">
         <v>309262.6694237038</v>
       </c>
+      <c r="G97">
+        <v>101610.89861054</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -2339,6 +2630,9 @@
       <c r="F98">
         <v>122111.9827320719</v>
       </c>
+      <c r="G98">
+        <v>100301.54597955</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -2359,6 +2653,9 @@
       <c r="F99">
         <v>114966.00459435974</v>
       </c>
+      <c r="G99">
+        <v>102612.95383189</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -2379,6 +2676,9 @@
       <c r="F100">
         <v>125740.81931481017</v>
       </c>
+      <c r="G100">
+        <v>103279.72590344</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -2399,6 +2699,9 @@
       <c r="F101">
         <v>181884.25238501755</v>
       </c>
+      <c r="G101">
+        <v>108421.06018417</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -2419,6 +2722,9 @@
       <c r="F102">
         <v>194919.24920594736</v>
       </c>
+      <c r="G102">
+        <v>112259.34704722</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -2439,6 +2745,9 @@
       <c r="F103">
         <v>39922.167328866286</v>
       </c>
+      <c r="G103">
+        <v>112414.56612811</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -2459,6 +2768,9 @@
       <c r="F104">
         <v>54123.49333184654</v>
       </c>
+      <c r="G104">
+        <v>114328.95044547</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -2479,6 +2791,9 @@
       <c r="F105">
         <v>26555.016658504563</v>
       </c>
+      <c r="G105">
+        <v>115481.60881761</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -2499,6 +2814,9 @@
       <c r="F106">
         <v>56740.35263429205</v>
       </c>
+      <c r="G106">
+        <v>115236.04608858</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -2519,6 +2837,9 @@
       <c r="F107">
         <v>51330.2468591964</v>
       </c>
+      <c r="G107">
+        <v>115013.42494585</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -2539,6 +2860,9 @@
       <c r="F108">
         <v>67443.85466765106</v>
       </c>
+      <c r="G108">
+        <v>115265.77694728</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -2559,6 +2883,9 @@
       <c r="F109">
         <v>89893.98744245927</v>
       </c>
+      <c r="G109">
+        <v>110485.93688927</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -2579,6 +2906,9 @@
       <c r="F110">
         <v>52163.26187510637</v>
       </c>
+      <c r="G110">
+        <v>107130.1209757</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -2599,6 +2929,9 @@
       <c r="F111">
         <v>64657.99020398236</v>
       </c>
+      <c r="G111">
+        <v>109157.96610689</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -2619,6 +2952,9 @@
       <c r="F112">
         <v>37163.09811529433</v>
       </c>
+      <c r="G112">
+        <v>107996.63121403</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -2639,6 +2975,9 @@
       <c r="F113">
         <v>147799.93566671497</v>
       </c>
+      <c r="G113">
+        <v>103811.74979038</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -2659,6 +2998,9 @@
       <c r="F114">
         <v>44570.06654465936</v>
       </c>
+      <c r="G114">
+        <v>105802.11520339</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -2679,6 +3021,9 @@
       <c r="F115">
         <v>36716.162021661614</v>
       </c>
+      <c r="G115">
+        <v>106351.41159102</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -2699,6 +3044,9 @@
       <c r="F116">
         <v>61758.22206520981</v>
       </c>
+      <c r="G116">
+        <v>106047.47341972</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -2719,6 +3067,9 @@
       <c r="F117">
         <v>80514.69448016942</v>
       </c>
+      <c r="G117">
+        <v>103777.87341033</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -2739,6 +3090,9 @@
       <c r="F118">
         <v>25710.347425407526</v>
       </c>
+      <c r="G118">
+        <v>104537.58735555</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -2759,6 +3113,9 @@
       <c r="F119">
         <v>27117.275159074663</v>
       </c>
+      <c r="G119">
+        <v>105007.41041176</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -2779,6 +3136,9 @@
       <c r="F120">
         <v>32570.35081275428</v>
       </c>
+      <c r="G120">
+        <v>103518.39282014</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -2799,6 +3159,9 @@
       <c r="F121">
         <v>60222.39629342836</v>
       </c>
+      <c r="G121">
+        <v>104078.93252869</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -2819,6 +3182,9 @@
       <c r="F122">
         <v>427362.28229294706</v>
       </c>
+      <c r="G122">
+        <v>88286.184732414</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -2839,6 +3205,9 @@
       <c r="F123">
         <v>39272.124622270654</v>
       </c>
+      <c r="G123">
+        <v>98322.912135634</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -2859,6 +3228,9 @@
       <c r="F124">
         <v>48903.888657421456</v>
       </c>
+      <c r="G124">
+        <v>95998.865392477</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -2879,6 +3251,9 @@
       <c r="F125">
         <v>7989.816493690492</v>
       </c>
+      <c r="G125">
+        <v>100018.19156949</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -2899,6 +3274,9 @@
       <c r="F126">
         <v>10267.670223545423</v>
       </c>
+      <c r="G126">
+        <v>100060.71938454</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -2919,6 +3297,9 @@
       <c r="F127">
         <v>107085.86214523576</v>
       </c>
+      <c r="G127">
+        <v>92113.823498676</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -2939,6 +3320,9 @@
       <c r="F128">
         <v>65677.85378063831</v>
       </c>
+      <c r="G128">
+        <v>92717.898706728</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -2959,6 +3343,9 @@
       <c r="F129">
         <v>99087.43532303725</v>
       </c>
+      <c r="G129">
+        <v>92842.387873834</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -2979,6 +3366,9 @@
       <c r="F130">
         <v>199531.7505007871</v>
       </c>
+      <c r="G130">
+        <v>92382.53360887</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -2999,6 +3389,9 @@
       <c r="F131">
         <v>186167.31339254623</v>
       </c>
+      <c r="G131">
+        <v>87425.189821489</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -3019,6 +3412,9 @@
       <c r="F132">
         <v>43493.756347021175</v>
       </c>
+      <c r="G132">
+        <v>90149.8002367</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -3039,6 +3435,9 @@
       <c r="F133">
         <v>32030.444543170044</v>
       </c>
+      <c r="G133">
+        <v>89843.202771882</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -3059,6 +3458,9 @@
       <c r="F134">
         <v>9239.887670579265</v>
       </c>
+      <c r="G134">
+        <v>90852.52750663</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -3079,10 +3481,13 @@
       <c r="F135">
         <v>0</v>
       </c>
+      <c r="G135">
+        <v>90852.52750663</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F135"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G135"/>
   </ignoredErrors>
 </worksheet>
 </file>